--- a/【杭州】-黄祥和计划表.xlsx
+++ b/【杭州】-黄祥和计划表.xlsx
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,8 +490,8 @@
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,8 +523,8 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
